--- a/products.xlsx
+++ b/products.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Товары" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Продавцы" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,12 +442,6 @@
     <col width="50.58" customWidth="1" min="4" max="4"/>
     <col width="10.959" customWidth="1" min="5" max="5"/>
     <col width="10.959" customWidth="1" min="6" max="6"/>
-    <col width="10.959" customWidth="1" min="7" max="7"/>
-    <col width="10.959" customWidth="1" min="8" max="8"/>
-    <col width="10.959" customWidth="1" min="9" max="9"/>
-    <col width="25.29" customWidth="1" min="10" max="10"/>
-    <col width="25.29" customWidth="1" min="11" max="11"/>
-    <col width="10.959" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -479,49 +472,19 @@
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Цена по ВБ Карте</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Цена без ВБ Карте</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Отзывы</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
           <t>Рейтинг</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Поставщик(продавец)</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>ID продавца</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Рейтинг продавца</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>код: 15557405</t>
+          <t>код: 22610109</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Перфоратор Makita HR4003C</t>
+          <t>Перфоратор SDS-plus KEYANG HD26-2T</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -531,59 +494,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-makita-hr4003c-772527/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-keyang-hd26-2t-4990866/</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80 050 ₽</t>
+          <t>15 990 ₽</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>4.699999809265137</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>код: 30126362</t>
+          <t>код: 15863324</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Перфоратор DEKO DKH1250W в кейсе, с дополнительным патроном, 1250 Вт 063-4366</t>
+          <t>Перфоратор Ryobi RSDS1050-K 5133004350</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -593,59 +526,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-deko-dkh1250w-v-kejse-s-dopolnitelnym-patronom-1250-vt-063-4366-11313386/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds1050-k-5133004350-936263/</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7 883 ₽</t>
+          <t>12 690 ₽</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>4.300000190734863</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.199999809265137</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>код: 15594038</t>
+          <t>код: 15016586</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Перфоратор Metabo KHE 2660 Quick + патрон 600663500</t>
+          <t>Перфоратор AEG KH 28 Super XE 4935428190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -655,59 +558,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-metabo-khe-2660-quick-patron-600663500-786472/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-28-super-xe-4935428190-224704/</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>30 219 ₽</t>
+          <t>24 990 ₽</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.199999809265137</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>код: 15424189</t>
+          <t>код: 15600525</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Перфоратор ВИХРЬ П-800К 72/3/6</t>
+          <t>Перфоратор AEG KH24IE 4935451555</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -717,59 +590,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-800k-72-3-6-685354/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh24ie-4935451555-792269/</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4 653 ₽</t>
+          <t>9 990 ₽</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.400000095367432</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>код: 16061811</t>
+          <t>код: 15946460</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Перфоратор Ресанта П-30-900К 75/3/2</t>
+          <t>Перфоратор KEYANG PHD-283B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -779,59 +622,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-30-900k-75-3-2-1171655/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-keyang-phd-283b-6563155/</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8 790 ₽</t>
+          <t>13 990 ₽</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.400000095367432</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>код: 37589634</t>
+          <t>код: 36087114</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Перфоратор Dewalt D25144K</t>
+          <t>Перфоратор WORX Professional WU350S</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -841,59 +654,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-dewalt-d25144k-17863085/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-worx-professional-wu350s-18447984/</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>31 968 ₽</t>
+          <t>43 790 ₽</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>код: 38248008</t>
+          <t>код: 37884462</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Перфоратор Вихрь П-VI7к-в 900/72/3/34</t>
+          <t>Перфоратор WORTEN SDS-plus сетевой 1900W КА-90000341</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -903,59 +686,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-vi7k-v-900-72-3-34-19107495/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-worten-sds-max-setevoj-1900w-v-kejse-im-ka-90000341-18289266/</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6 469 ₽</t>
+          <t>11 890 ₽</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>4.5</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>код: 15537170</t>
+          <t>код: 15139757</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Перфоратор ЗУБР Профессионал, 1100 Вт ЗП-32-1100 К</t>
+          <t>Перфоратор AEG KH5G 4935418160</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -965,59 +718,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-zubr-professional-1100-vt-zp-32-1100-k-751481/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-5-g-4935418160-541257/</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10 114 ₽</t>
+          <t>45 990 ₽</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>3.799999952316284</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.599999904632568</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>код: 24381861</t>
+          <t>код: 23254119</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Перфоратор Пульсар SDS-MAX ПЭ 42-1600 900-836</t>
+          <t>Перфоратор WORX Professional WU340S 800Вт, 26мм, 3Дж, кейс WU340S</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1027,59 +750,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-pulsar-sds-max-pe-42-1600-900-836-5913325/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-worx-800vt-26mm-3dzh-kejs-wu340s-6025987/</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>13 021 ₽</t>
+          <t>18 690 ₽</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>4.400000095367432</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>N/A</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>код: 20656690</t>
+          <t>код: 23254125</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Перфоратор Sturm SDS-MAX RH2538V</t>
+          <t>Перфоратор WORX Professional WU326P 1010Вт, SDS Plus, 26мм, 5Дж, кейс WU326P</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1089,7 +782,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sturm-sds-max-rh2538v-2199885/</t>
+          <t>https://www.vseinstrumenti.ru/product/perforator-worx-pro-1010vt-sds-plus-26mm-5dzh-kejs-wu326p-5345239/</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1099,216 +792,967 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>код: 14949289</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Перфоратор AEG KH 26 E 4935428180</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-26-e-4935428180-215715/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>19 990 ₽</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>код: 37884444</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Перфоратор WORTEN SDS-plus, сетевой, 870W с набором 5 буров КА-90000340</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-worten-sds-plus-setevoj-v-kejse-s-naborom-5-burov-im-ka-90000340-18289230/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6 890 ₽</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.900000095367432</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10.959" customWidth="1" min="1" max="1"/>
-    <col width="25.29" customWidth="1" min="2" max="2"/>
-    <col width="50.58" customWidth="1" min="3" max="3"/>
-    <col width="10.959" customWidth="1" min="4" max="4"/>
-    <col width="10.959" customWidth="1" min="5" max="5"/>
-    <col width="10.959" customWidth="1" min="6" max="6"/>
-    <col width="50.58" customWidth="1" min="7" max="7"/>
-    <col width="25.29" customWidth="1" min="8" max="8"/>
-    <col width="10.959" customWidth="1" min="9" max="9"/>
-    <col width="10.959" customWidth="1" min="10" max="10"/>
-    <col width="10.959" customWidth="1" min="11" max="11"/>
-    <col width="10.959" customWidth="1" min="12" max="12"/>
-    <col width="10.959" customWidth="1" min="13" max="13"/>
-    <col width="50.58" customWidth="1" min="14" max="14"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>ID продавца</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Название продавца</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Полное юридическое название</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>ИНН</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>ОГРН</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>ОГРНИП</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Юридический адрес</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Торговая марка</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>КПП</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Номер регистрации</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>УНП</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>БИН</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>УНН</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Ссылка на продавца</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>N/A</t>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>код: 26083043</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Перфоратор KEYANG SDS-plus HD26-800T</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-keyang-sds-plus-hd26-800t-7792629/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>11 992 ₽</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.699999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>код: 38193600</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Перфоратор Bosch GBH 220 06112A6080</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/bosch-perforator-gbh-220-06112a6080-18575400/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>12 990 ₽</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>код: 15624924</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Перфоратор AEG KH24IXE 4935451553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh24ixe-4935451553-812682/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18 990 ₽</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>код: 35132269</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Перфоратор DCA AZC02-28SH</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-dca-azc02-28sh-17802779/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14 241 ₽</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.800000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>код: 15554561</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Перфоратор Ryobi RSDS800K 5133002463</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds800k-5133002463-765529/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>12 990 ₽</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.199999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>код: 36837228</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Перфоратор сетевой Zitrek ZKH1000 в кейсе, с набором из 5 буров, 1000 Вт 085-1302</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-setevoj-zitrek-zkh1000-v-kejse-s-naborom-iz-5-burov-1000-vt-085-1302-17206655/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2 990 ₽</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>код: 25148343</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Перфоратор ЗУБР Профессионал SDS Max 1350 Вт, 45 мм ЗПМ-45-1350 ЭВ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/professional-perforator-sds-max-1350-vt-45-mm-zubr-zpm-45-1350-ev-6729781/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20 990 ₽</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.699999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>код: 18318739</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Перфоратор Sturm SDS-MAX 2000Вт, 12Дж, 3900уд/мин, 560об/мин, 2 режима, кейс RH25206PM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sturm-rh25206pm-1854750/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13 990 ₽</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.699999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>код: 33309984</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Перфоратор DCA AZC10-26S</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-dca-azc10-26s-17509505/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>11 890 ₽</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.800000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>код: 16061813</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Перфоратор Ресанта П-32-1000К 75/3/3</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-32-1000k-75-3-3-1171650/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9 190 ₽</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>код: 15557444</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Перфоратор Ryobi RSDS680-K 5133002444</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds680-k-5133002444-768923/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>11 990 ₽</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.199999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>код: 32224368</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Перфоратор Вихрь П-3,4-990 900/72/3/13</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-3-4-990-900-72-3-13-12983351/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7 385 ₽</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.599999904632568</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>код: 14949061</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Перфоратор AEG KH 26 XE 4935428910</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-26-xe-4935428910-512043/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>19 990 ₽</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.199999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>код: 16061810</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Перфоратор Ресанта П-28-800К 75/3/1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-28-800k-75-3-1-1171657/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>7 690 ₽</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>код: 18317419</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Перфоратор Hanskonner HRH2145MVE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-hanskonner-hrh2145mve-1873931/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32 990 ₽</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.699999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>код: 22138011</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Перфоратор SDS Plus ЗУБР 1500 Вт ПВ-32-1500 ЭВ</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-zubr-1500-vt-pv-32-1500-ev-4206102/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>11 550 ₽</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.5999999046325684</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>код: 19420134</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Сетевой перфоратор DEKO DKH850W кейс, набор из 5 буров, SDS+, дополнительный патрон 063-4255</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/setevoj-perforator-deko-dkh850w-063-4255-1977825/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6 590 ₽</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.199999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>код: 15624925</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Перфоратор AEG ВН 24 IE 4935451558</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-vn-24-ie-4935451558-812683/</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>16 490 ₽</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.599999904632568</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>код: 15608166</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Перфоратор ЗУБР МАСТЕР П-22-650</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-zubr-master-p-22-650-796390/</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5 180 ₽</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>код: 16468589</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Перфоратор Вихрь П-750 72/3/9</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-750-72-3-9-1543631/</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4 331 ₽</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.599999904632568</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>код: 27311322</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Электрический перфоратор Forsage в кейсе F-Z1C-DH02-26(51851)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/forsage-perforator-elektricheskij-sverla-5-7-8x140mm-zubilo-ploskoe20x220mm-pika-ugol-e-schetki-220v-50-60gts-800w-0-1300-ob-min-2-8dzh-max-sverl-24mm-v-kejse-f-z1c-dh02-26-12135515/</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4 127 ₽</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.900000095367432</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>код: 15557405</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Перфоратор Makita HR4003C</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-makita-hr4003c-772527/</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80 050 ₽</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.699999809265137</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>код: 34666423</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Перфоратор ATLET SDS-Plus PDH28G2.1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-atlet-pdh28g2-1-15684604/</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>9 990 ₽</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.800000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>код: 38894812</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Перфоратор Sturm SDS MAX 1900Вт, 10Дж, 4000уд/мин, 590об/мин, 2 режима, кейс RH2540M</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sturm-sds-max-rh2540m-19076139/</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10 490 ₽</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>код: 38248038</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Перфоратор Вихрь П-VI710 900/72/3/36</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-vi710-900-72-3-36-19107483/</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>4 934 ₽</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>код: 20420464</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Перфоратор Вихрь П-5А-1000 72/3/11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-5a-1000-72-3-11-2184160/</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>5 314 ₽</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.300000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>код: 34666639</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Перфоратор SDS-Plus ATLET PDH26GS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-atlet-pdh26gs-16727579/</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>6 490 ₽</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.800000190734863</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>код: 20694999</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Перфоратор Ресанта П-40-1600КМ SDS-Max 75/3/7</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-40-1600km-sds-max-75-3-7-2461822/</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>16 890 ₽</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.599999904632568</t>
         </is>
       </c>
     </row>

--- a/products.xlsx
+++ b/products.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.959" customWidth="1" min="1" max="1"/>
-    <col width="50.58" customWidth="1" min="2" max="2"/>
-    <col width="10.959" customWidth="1" min="3" max="3"/>
-    <col width="50.58" customWidth="1" min="4" max="4"/>
-    <col width="10.959" customWidth="1" min="5" max="5"/>
-    <col width="10.959" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -457,1302 +457,3222 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Бренд</t>
+          <t>URL</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Обычная цена</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Обычная цена</t>
+          <t>Рейтинг</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>Рейтинг</t>
+          <t>Количество отзывов</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>код: 22610109</t>
+          <t>код: 24708639</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Перфоратор SDS-plus KEYANG HD26-2T</t>
+          <t>Краб-система Крепче Т-образный, цинк, 20x20 мм, 20 шт. 2947669</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-t-obraznyj-otsink-20x20-mm-20-sht-2947669-6293929/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-keyang-hd26-2t-4990866/</t>
+          <t>285 ₽</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15 990 ₽</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>код: 15863324</t>
+          <t>код: 24708699</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Перфоратор Ryobi RSDS1050-K 5133004350</t>
+          <t>Краб-система Крепче Т-образный, цинк, 20x20 мм, 52 шт. 2947652</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-t-obraznyj-otsink-20x20-mm-52-sht-2947652-6293935/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds1050-k-5133004350-936263/</t>
+          <t>1 192 ₽</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12 690 ₽</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>код: 15016586</t>
+          <t>код: 24708537</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH 28 Super XE 4935428190</t>
+          <t>Краб-система Крепче Х-образный, цинк, 20x20 мм, 20 шт. 2947690</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-h-obraznyj-otsink-20x20-mm-20-sht-2947690-6293869/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-28-super-xe-4935428190-224704/</t>
+          <t>432 ₽</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24 990 ₽</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>код: 15600525</t>
+          <t>код: 24708579</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH24IE 4935451555</t>
+          <t>Краб-система Крепче Г-образный, цинк, 20x20 мм, 20 шт. 2947706</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-g-obraznyj-otsink-20x20-mm-20-sht-2947706-6293851/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh24ie-4935451555-792269/</t>
+          <t>302 ₽</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.400000095367432</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>код: 15946460</t>
+          <t>код: 20730957</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Перфоратор KEYANG PHD-283B</t>
+          <t>Одноуровневый соединитель Техносонус АкустикГипс AcousticGyps Краб для ПП 60/27 1400300075</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/odnourovnevyj-soedinitel-tehnosonus-akustikgips-acousticgyps-krab-dlya-pp-60-27-1400300075-2305822/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-keyang-phd-283b-6563155/</t>
+          <t>52 ₽</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.400000095367432</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>код: 36087114</t>
+          <t>код: 19562550</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Перфоратор WORX Professional WU350S</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 3-пал., смежн. 17992</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-3-pal-smezhn-17992-2013957/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-worx-professional-wu350s-18447984/</t>
+          <t>143 ₽</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>43 790 ₽</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>код: 37884462</t>
+          <t>код: 24708669</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Перфоратор WORTEN SDS-plus сетевой 1900W КА-90000341</t>
+          <t>Краб-система Крепче Х-образный, цинк, 20x20 мм, 100 шт. 2947676</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-h-obraznyj-otsink-20x20-mm-100-sht-2947676-6293821/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-worten-sds-max-setevoj-1900w-v-kejse-im-ka-90000341-18289266/</t>
+          <t>1 801 ₽</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11 890 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>код: 15139757</t>
+          <t>код: 18733542</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH5G 4935418160</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 2-пал., смежн. 17990</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-2-pal-smezhn-17990-1954751/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-5-g-4935418160-541257/</t>
+          <t>117 ₽</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>45 990 ₽</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.599999904632568</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>код: 23254119</t>
+          <t>код: 24708543</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Перфоратор WORX Professional WU340S 800Вт, 26мм, 3Дж, кейс WU340S</t>
+          <t>Краб-система Крепче Х-образный, цинк, 20x20 мм, 50 шт. 2947683</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-h-obraznyj-otsink-20x20-mm-50-sht-2947683-6293803/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-worx-800vt-26mm-3dzh-kejs-wu340s-6025987/</t>
+          <t>897 ₽</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>18 690 ₽</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>код: 23254125</t>
+          <t>код: 25591851</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Перфоратор WORX Professional WU326P 1010Вт, SDS Plus, 26мм, 5Дж, кейс WU326P</t>
+          <t>Соединитель профиля лаг STARFIX 40x120 цинк 1 шт. SMP-15141-1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-lag-starfix-40x120-tsink-smp-15141-1-7516843/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-worx-pro-1010vt-sds-plus-26mm-5dzh-kejs-wu326p-5345239/</t>
+          <t>121 ₽</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>15 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>код: 14949289</t>
+          <t>код: 18733554</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH 26 E 4935428180</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 3-пал., Т-обр. 17991</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-3-pal-t-obr-17991-1954757/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-26-e-4935428180-215715/</t>
+          <t>143 ₽</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>19 990 ₽</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>код: 37884444</t>
+          <t>код: 15868096</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Перфоратор WORTEN SDS-plus, сетевой, 870W с набором 5 буров КА-90000340</t>
+          <t>3-палый соединитель ALBERTS смежный для 20х20мм, 426347</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/3-palyj-soedinitel-gah-alberts-smezhnyj-dlya-20h20mm-426347-942305/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-worten-sds-plus-setevoj-v-kejse-s-naborom-5-burov-im-ka-90000340-18289230/</t>
+          <t>220 ₽</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6 890 ₽</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.900000095367432</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>код: 26083043</t>
+          <t>код: 18732306</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Перфоратор KEYANG SDS-plus HD26-800T</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 30х30 мм, 2-пал., смежн. 17996</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-30h30-mm-2-pal-smezhn-17996-1954764/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-keyang-sds-plus-hd26-800t-7792629/</t>
+          <t>165 ₽</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11 992 ₽</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>код: 38193600</t>
+          <t>код: 18733494</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Перфоратор Bosch GBH 220 06112A6080</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 2-пал. 17989</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-2-pal-17989-1954747/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/bosch-perforator-gbh-220-06112a6080-18575400/</t>
+          <t>117 ₽</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>4</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>код: 15624924</t>
+          <t>код: 15868099</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH24IXE 4935451553</t>
+          <t>3-палый соединитель ALBERTS Т-образный для 30х30мм, 426453</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/3-palyj-soedinitel-gah-alberts-t-obraznyj-dlya-30h30mm-426453-942308/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh24ixe-4935451553-812682/</t>
+          <t>329 ₽</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>код: 35132269</t>
+          <t>код: 24708645</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Перфоратор DCA AZC02-28SH</t>
+          <t>Краб-система Крепче XYZ-образный, цинк, 20x20 мм, 4 пары 2947713</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-xyz-obraznyj-otsink-20x20-mm-4-pary-2947713-6293785/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-dca-azc02-28sh-17802779/</t>
+          <t>169 ₽</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>14 241 ₽</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.800000190734863</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>код: 15554561</t>
+          <t>код: 20905719</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Перфоратор Ryobi RSDS800K 5133002463</t>
+          <t>Крепеж для профильной трубы Х-образный оцинкованный, РемоКолор 70-0-844</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krepezh-dlya-profilnoj-truby-h-obraznyj-otsinkovannyj-remokolor-70-0-844-2843780/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds800k-5133002463-765529/</t>
+          <t>63 ₽</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>код: 36837228</t>
+          <t>код: 15868105</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Перфоратор сетевой Zitrek ZKH1000 в кейсе, с набором из 5 буров, 1000 Вт 085-1302</t>
+          <t>Двупалый соединитель ALBERTS 180 для 30x30 мм, 426439</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/dvupalyj-soedinitel-gah-alberts-180-dlya-30x30-mm-426439-942314/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-setevoj-zitrek-zkh1000-v-kejse-s-naborom-iz-5-burov-1000-vt-085-1302-17206655/</t>
+          <t>269 ₽</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2 990 ₽</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>код: 25148343</t>
+          <t>код: 32139684</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Перфоратор ЗУБР Профессионал SDS Max 1350 Вт, 45 мм ЗПМ-45-1350 ЭВ</t>
+          <t>Краб RBM Construction 0,9 мм 21856</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-rbm-construction-0-9-mm-21856-12984023/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/professional-perforator-sds-max-1350-vt-45-mm-zubr-zpm-45-1350-ev-6729781/</t>
+          <t>61 ₽</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>20 990 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>код: 18318739</t>
+          <t>код: 18733488</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Перфоратор Sturm SDS-MAX 2000Вт, 12Дж, 3900уд/мин, 560об/мин, 2 режима, кейс RH25206PM</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 2-пал. 16514</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-2-pal-16514-1954753/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sturm-rh25206pm-1854750/</t>
+          <t>139 ₽</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13 990 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>код: 33309984</t>
+          <t>код: 15868093</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Перфоратор DCA AZC10-26S</t>
+          <t>2-палый соединитель ALBERTS 180 для 20x20мм, 426354</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/2-palyj-soedinitel-gah-alberts-180-dlya-20x20mm-426354-942302/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-dca-azc10-26s-17509505/</t>
+          <t>249 ₽</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11 890 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.800000190734863</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>код: 16061813</t>
+          <t>код: 15868094</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Перфоратор Ресанта П-32-1000К 75/3/3</t>
+          <t>2-палый соединитель ALBERTS смежный для 20х20мм, 426361</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/2-palyj-soedinitel-gah-alberts-smezhnyj-dlya-20h20mm-426361-942303/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-32-1000k-75-3-3-1171650/</t>
+          <t>249 ₽</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>9 190 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>код: 15557444</t>
+          <t>код: 25774257</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Перфоратор Ryobi RSDS680-K 5133002444</t>
+          <t>T-образный соединитель ALBERTS цинк, 160x142x45 мм 353322</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-t-obr-ots-160x142x45-gah-alberts-353322-7845152/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-ryobi-rsds680-k-5133002444-768923/</t>
+          <t>324 ₽</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11 990 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>код: 32224368</t>
+          <t>код: 24708621</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Перфоратор Вихрь П-3,4-990 900/72/3/13</t>
+          <t>Краб-система Крепче Х-образный, цинк, 25x25 мм, 50 шт. 2947744</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-h-obraznyj-otsink-25x25-mm-50-sht-2947744-6293815/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-3-4-990-900-72-3-13-12983351/</t>
+          <t>949 ₽</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7 385 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.599999904632568</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>код: 14949061</t>
+          <t>код: 18732168</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Перфоратор AEG KH 26 XE 4935428910</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 30х30 мм, 4-пал., смежн. 18001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-30h30-mm-4-pal-smezhn-18001-1954761/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-kh-26-xe-4935428910-512043/</t>
+          <t>234 ₽</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19 990 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>код: 16061810</t>
+          <t>код: 19562862</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Перфоратор Ресанта П-28-800К 75/3/1</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 30х30 мм, 3-пал., смежн. 18000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-30h30-mm-3-pal-smezhn-18000-2013963/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-28-800k-75-3-1-1171657/</t>
+          <t>198 ₽</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7 690 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>код: 18317419</t>
+          <t>код: 18733524</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Перфоратор Hanskonner HRH2145MVE</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 2-пал., смежн 16513</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-2-pal-smezhn-16513-1954755/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-hanskonner-hrh2145mve-1873931/</t>
+          <t>139 ₽</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32 990 ₽</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>код: 22138011</t>
+          <t>код: 15868103</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Перфоратор SDS Plus ЗУБР 1500 Вт ПВ-32-1500 ЭВ</t>
+          <t>5-палый соединитель ALBERTS для 20х20мм, 426408</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/5-palyj-soedinitel-gah-alberts-dlya-20h20mm-426408-942312/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-zubr-1500-vt-pv-32-1500-ev-4206102/</t>
+          <t>449 ₽</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11 550 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.5999999046325684</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>код: 19420134</t>
+          <t>код: 18733500</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Сетевой перфоратор DEKO DKH850W кейс, набор из 5 буров, SDS+, дополнительный патрон 063-4255</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 4-пал. 17993</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-4-pal-17993-1954756/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/setevoj-perforator-deko-dkh850w-063-4255-1977825/</t>
+          <t>182 ₽</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6 590 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4.199999809265137</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>код: 15624925</t>
+          <t>код: 15868098</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Перфоратор AEG ВН 24 IE 4935451558</t>
+          <t>3-палый соединитель ALBERTS Т-образный для 20х20мм, 426378</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/3-palyj-soedinitel-gah-alberts-t-obraznyj-dlya-20h20mm-426378-942307/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-aeg-vn-24-ie-4935451558-812683/</t>
+          <t>299 ₽</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16 490 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4.599999904632568</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>код: 15608166</t>
+          <t>код: 18732234</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Перфоратор ЗУБР МАСТЕР П-22-650</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 30х30 мм, 3-пал., Т-обр. 17999</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-30h30-mm-3-pal-t-obr-17999-1954762/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-zubr-master-p-22-650-796390/</t>
+          <t>198 ₽</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5 180 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>код: 16468589</t>
+          <t>код: 18733506</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Перфоратор Вихрь П-750 72/3/9</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 4-пал. 16517</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-4-pal-16517-1954759/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-750-72-3-9-1543631/</t>
+          <t>187 ₽</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4 331 ₽</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4.599999904632568</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>код: 27311322</t>
+          <t>код: 15868102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Электрический перфоратор Forsage в кейсе F-Z1C-DH02-26(51851)</t>
+          <t>4-палый соединитель ALBERTS смежный для 30х30мм, 426460</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/4-palyj-soedinitel-gah-alberts-smezhnyj-dlya-30h30mm-426460-942311/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/forsage-perforator-elektricheskij-sverla-5-7-8x140mm-zubilo-ploskoe20x220mm-pika-ugol-e-schetki-220v-50-60gts-800w-0-1300-ob-min-2-8dzh-max-sverl-24mm-v-kejse-f-z1c-dh02-26-12135515/</t>
+          <t>359 ₽</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4 127 ₽</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.900000095367432</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>код: 15557405</t>
+          <t>код: 16072256</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Перфоратор Makita HR4003C</t>
+          <t>Соединитель профиля-Х Walraven BIS RapidRail 6584091</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-h-walraven-bis-rapidrail-6584091-1173033/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-makita-hr4003c-772527/</t>
+          <t>1 014 ₽</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>80 050 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4.699999809265137</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>код: 34666423</t>
+          <t>код: 22234461</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Перфоратор ATLET SDS-Plus PDH28G2.1</t>
+          <t>Соединитель FERON угловой 135 для профилей CAB, LD152, 10 шт. 48112</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-feron-uglovoj-135-dlya-profilej-cab-ld152-10-sht-48112-3860286/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-atlet-pdh28g2-1-15684604/</t>
+          <t>1 331 ₽</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>9 990 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4.800000190734863</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>код: 38894812</t>
+          <t>код: 16072247</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Перфоратор Sturm SDS MAX 1900Вт, 10Дж, 4000уд/мин, 590об/мин, 2 режима, кейс RH2540M</t>
+          <t>Соединитель профиля-Т Walraven BIS RapidRail 6584090</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-t-walraven-bis-rapidrail-6584090-1173032/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sturm-sds-max-rh2540m-19076139/</t>
+          <t>810 ₽</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10 490 ₽</t>
+          <t>Рейтинг не найден</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>код: 38248038</t>
+          <t>код: 20748369</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Перфоратор Вихрь П-VI710 900/72/3/36</t>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 3-пал., смежный 16515</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-3-pal-smezhnyj-16515-2276656/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-vi710-900-72-3-36-19107483/</t>
+          <t>163 ₽</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4 934 ₽</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>код: 20420464</t>
+          <t>код: 15868101</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Перфоратор Вихрь П-5А-1000 72/3/11</t>
+          <t>4-палый соединитель ALBERTS смежный для 20х20мм, 426385</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/4-palyj-soedinitel-gah-alberts-smezhnyj-dlya-20h20mm-426385-942310/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-vihr-p-5a-1000-72-3-11-2184160/</t>
+          <t>279 ₽</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5 314 ₽</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4.300000190734863</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>код: 34666639</t>
+          <t>код: 24708561</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Перфоратор SDS-Plus ATLET PDH26GS</t>
+          <t>Краб-система Крепче Т-образный, цинк, 25x25 мм, 20 шт. 2947737</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-t-obraznyj-otsink-25x25-mm-20-sht-2947737-6293917/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-sds-plus-atlet-pdh26gs-16727579/</t>
+          <t>286 ₽</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6 490 ₽</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4.800000190734863</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>код: 20694999</t>
+          <t>код: 20895675</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Перфоратор Ресанта П-40-1600КМ SDS-Max 75/3/7</t>
+          <t>Т-образный крепеж для профильной трубы РемоКолор оцинкованный 70-0-843</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.vseinstrumenti.ru/product/t-obraznyj-krepezh-dlya-profilnoj-truby-remokolor-otsinkovannyj-70-0-843-2843732/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.vseinstrumenti.ru/product/perforator-resanta-p-40-1600km-sds-max-75-3-7-2461822/</t>
+          <t>39 ₽</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>16 890 ₽</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4.599999904632568</t>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>код: 18733434</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 4-пал., смежн. 17994</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-4-pal-smezhn-17994-1954754/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>182 ₽</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>код: 23862573</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight угловой для STEP-MINI 020921</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-uglovoj-dlya-step-mini-020921-5807515/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5 191 ₽</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>код: 16190953</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Угловой соединитель для встраиваемого профиля FERON Линии света CAB255, LD144 10366</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/uglovoj-soedinitel-dlya-vstraivaemogo-profilya-feron-linii-sveta-cab255-ld144-10366-2196956/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>119 ₽</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>код: 18733548</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 4-пал., смежн. 16516</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-4-pal-smezhn-16516-1954760/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>187 ₽</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>код: 22234449</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Соединитель FERON X для профилей CAB, LD155 10 шт. 48115</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-feron-x-dlya-profilej-cab-ld155-10-sht-48115-3860280/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3 754 ₽</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>код: 22234479</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Соединитель FERON Y для профилей CAB, LD154 10 шт. 48114</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-feron-y-dlya-profilej-cab-ld154-10-sht-48114-3860304/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2 434 ₽</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>код: 22234467</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Соединитель FERON Т для профилей CAB, LD153 10 шт. 48113</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-feron-t-dlya-profilej-cab-ld153-10-sht-48113-3860292/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2 434 ₽</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>код: 15868100</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4-палый соединитель ALBERTS вкрест для 20х20мм, 426392</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/4-palyj-soedinitel-gah-alberts-vkrest-dlya-20h20mm-426392-942309/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>299 ₽</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>код: 23853057</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight ARH-BENT-W18 023094</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-arh-bent-w18-023094-5807407/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2 002 ₽</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>код: 23852553</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-120 025952</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-120-025952-5807401/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1 537 ₽</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>код: 22234473</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Соединитель FERON угловой 120 для профилей CAB, LD151 10 шт. 48111</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-feron-uglovoj-120-dlya-profilej-cab-ld151-10-sht-48111-3860316/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1 331 ₽</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>код: 23857443</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight ARH-BENT-W11 023614</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-arh-bent-w11-023614-5807437/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1 537 ₽</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>код: 23857989</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-NA-135 026130</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-na-135-026130-5807449/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1 553 ₽</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>код: 23931555</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-135 019276</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-135-019276-5807503/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1 588 ₽</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>код: 16072205</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Walraven U-образный, BIS RapidRail, WM0-35, 200 мм 6543001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-walraven-u-obraznyj-bis-rapidrail-wm0-35-200-mm-6543001-1173031/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1 350 ₽</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>код: 18732270</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 5-пал., смежн. 16518</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-5-pal-smezhn-16518-1954763/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>254 ₽</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>код: 18733470</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Пластиковый соединитель для трубы ПилотПро 25х25 мм, 3-пал., Т-обр 16512</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-25h25-mm-3-pal-t-obr-16512-1954758/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>163 ₽</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>код: 18731490</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Пластиковый соединитель для трубы ПилотПро 20х20 мм, 5-пал., смежн. 17995</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/plastikovyj-soedinitel-dlya-truby-pilotpro-20h20-mm-5-pal-smezhn-17995-1954752/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>221 ₽</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>код: 25216353</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>U-образный соединитель профиля Fachmann 41x41 х.ц 11.095</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/u-obraznyj-soedinitel-profilya-fachmann-41x41-h-ts-11-095-6723283/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1 241 ₽</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>код: 25216383</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Четырехсторонний универсальный соединитель Fachmann х.ц 11.064</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/chetyrehstoronnij-universalnyj-soedinitel-fachmann-h-ts-11-064-6723277/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1 247 ₽</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>код: 23857803</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-NA-PION-135 026132</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-na-pion-135-026132-5807467/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1 655 ₽</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>код: 25216377</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Трехсторонний универсальный соединитель Fachmann х.ц 11.074</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/trehstoronnij-universalnyj-soedinitel-fachmann-h-ts-11-074-6723295/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>871 ₽</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>код: 39302938</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Соединитель угловой усиленный УМС 90' 8 отв., GAL SUU-8</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-uglovoj-ums-usilennyj-90-8-otv-gal-suu-8-19538295/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>967 ₽</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>код: 16190957</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Соединитель для встраиваемого профиля FERON Линии света CAB255, LD142 10364</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-dlya-vstraivaemogo-profilya-feron-linii-sveta-cab255-ld142-10364-1501156/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>119 ₽</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>код: 16190951</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Угловой соединитель для встраиваемого профиля FERON Линии света CAB255, LD143 10365</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/uglovoj-soedinitel-dlya-vstraivaemogo-profilya-feron-linii-sveta-cab255-ld143-10365-17100491/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>119 ₽</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>код: 25216401</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>U-образный соединитель профиля Fachmann 41x21 х.ц 11.096</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/u-obraznyj-soedinitel-profilya-fachmann-41x21-h-ts-11-096-6723223/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>898 ₽</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>код: 26952212</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight ARH-СEIL-S14-SHADOW-180 Set 1 комплект 039830</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arh-seil-s14-shadow-180-set-1kompl-arlight-039830-8407737/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>666 ₽</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>код: 16384851</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Т-образный соединитель ALBERTS оцинкованный, 140х110х30х2 мм 335052</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/t-obraznyj-soedinitel-gah-alberts-otsinkovannyj-140h110h30h2-mm-335052-1431302/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>131 ₽</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>код: 32263368</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Соединительная планка для профиля Elektrostandard PP-2-ALP023 LL-2-ALP023 (комп. 2 шт.) PP-2-ALP023 a066625</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitelnaya-planka-dlya-profilya-elektrostandard-pp-2-alp023-ll-2-alp023-komp-2-sht-pp-2-alp023-a066625-13069685/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>310 ₽</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>код: 15868104</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6-палый соединитель ALBERTS для 20х20мм, 426415</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/6-palyj-soedinitel-gah-alberts-dlya-20h20mm-426415-942313/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>199 ₽</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>код: 39302662</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Соединитель внешний УМС 41х41, TDZ SVE-41-TDZ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-vneshnij-ums-41x41-tdts-sve-41-tdz-19538181/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>695 ₽</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>код: 38109678</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Соединитель профиля PRO-montag.ru PM-ICON 41x41, внутренний (2,0) PM77070</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-pro-montag-ru-pm-icon-41x41-vnutrennij-2-0-pm77070-18381846/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>419 ₽</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>код: 39302518</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Соединитель угловой УМС усиленный, 90, 4 отв. GAL 00-00004789</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-uglovoj-ums-usilennyj-90-4-otv-gal-00-00004789-19538121/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>637 ₽</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>код: 39302818</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Соединитель внешний УМС 41х41, GAL SVE-41</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-vneshnij-ums-41x41-gal-sve-41-19538241/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>610 ₽</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>код: 15868097</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3-палый соединитель ALBERTS смежный для 30х30мм, 426422</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/3-palyj-soedinitel-gah-alberts-smezhnyj-dlya-30h30mm-426422-942306/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>329 ₽</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>код: 24708591</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Краб-система Крепче Т-образный, цинк, 20x20 мм, 104 шт. 2947645</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-t-obraznyj-otsink-20x20-mm-104-sht-2947645-6293923/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1 209 ₽</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>код: 23394099</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Уголок соединения бруса для качелей ООО Промекон 1000000035</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/ugolok-soedineniya-brusa-dlya-kachelej-ooo-promekon-1000000035-5964205/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3 243 ₽</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>код: 33323268</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист угол на 4 стороны 20х20 (1,2мм), ГОЦ, 20 шт. 0000000001565</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-ugol-na-4-storony-20h20-1-2mm-gots-20-sht-0000000001565-13981813/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1 173 ₽</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>код: 16161938</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Продольный соединитель Termoclip 28 6F4 M8 9114001</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/prodolnyj-soedinitel-termoclip-28-6f4-m8-9114001-1268697/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>7 697 ₽</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>код: 15868095</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2-палый соединитель ALBERTS смежный для 30х30мм, 426446</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/2-palyj-soedinitel-gah-alberts-smezhnyj-dlya-30h30mm-426446-942304/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>269 ₽</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>код: 18786522</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Набор крепежных соединителей АКТИВАГРО.РФ 20 шт. 002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/nabor-krepezhnyh-soedinitelej-aktivagro-rf-20-sht-002-1953751/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>950 ₽</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>код: 16161930</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Продольный соединитель Termoclip 38-40 8F4 M10 9247001</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/prodolnyj-soedinitel-termoclip-38-40-8f4-m10-9247001-1268672/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6 238 ₽</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>код: 33324084</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист угол на 3 стороны XYZ 20х20 (1,2 мм), ГОЦ, 20 шт. 0000000001914</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-ugol-na-3-storony-xyz-20h20-1-2-mm-gots-20-sht-0000000001914-13982059/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>846 ₽</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>код: 18786468</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Набор крепежных соединителей АКТИВАГРО.РФ 20 шт. 001</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/nabor-krepezhnyh-soedinitelej-aktivagro-rf-20-sht-001-1953763/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>850 ₽</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>код: 33323160</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист Г-образная 20х20 (1,2 мм), ГОЦ, 140 шт. 0000000001533</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-g-obraznaya-20h20-1-2-mm-gots-140-sht-0000000001533-13981759/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2 334 ₽</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>код: 30841647</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Соединительный краб для профиля ООО "ПЗМ" KR 60x27х0.9 мм, 50 шт. 12777618</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-soedinitelnyj-dlya-profilya-kr-60x27-0-9-50sht-ooo-pzm-12777618-11790695/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1 608 ₽</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>код: 33323076</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист Т-образная 20х20 (1,2 мм), ГОЦ, 100 шт. 0000000001430</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-t-obraznaya-20h20-1-2-mm-gots-100-sht-0000000001430-13981723/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1 469 ₽</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>код: 17684875</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Соединитель для профиля NOVOTECH (арт. 358090, 358091) SABRO 358233</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-dlya-profilya-novotech-art-358090-358091-sabro-358233-1912050/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>300 ₽</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>код: 23856723</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight угловой для STEP 020917</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-uglovoj-dlya-step-020917-5807425/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1 556 ₽</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>код: 24708597</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Краб-система Крепче Х-образный, цинк, 25x25 мм, 20 шт. 2947751</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-krepche-h-obraznyj-otsink-25x25-mm-20-sht-2947751-6293809/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>390 ₽</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>код: 23860011</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZMPION-90 019278</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zmpion-90-019278-5807485/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1 248 ₽</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>код: 23858349</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-90 019275</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-90-019275-5807461/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1 131 ₽</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>код: 23865357</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight ALU-POWER-RW80F 015475</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-alu-power-rw80f-015475-5807509/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>508 ₽</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>код: 23858517</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Соединитель Arlight ALU-180 прямой 024193</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-arlight-alu-180-pryamoj-024193-5807473/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1 350 ₽</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>код: 38109930</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Соединитель профиля PRO-montag.ru PM-OCON 41x21, наружный (2,0) PM77071</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-pro-montag-ru-pm-ocon-41x21-naruzhnyj-2-0-pm77071-18381858/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>603 ₽</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>код: 33323514</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист Т-образная 20х20 (1 мм), ГОЦ, 100 шт. 0000000002065</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-t-obraznaya-20h20-1-mm-gots-100-sht-0000000002065-13981873/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1 250 ₽</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>код: 23858151</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-NA-PION-90 026131</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-na-pion-90-026131-5807455/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1 116 ₽</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>код: 23860071</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Соединитель профиля Arlight PLS-ZM-NA-90 026128</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/soedinitel-profilya-arlight-pls-zm-na-90-026128-5807491/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>935 ₽</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>код: 30841125</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Соединительный краб для профиля ООО "ПЗМ" KR 60x27-0.7 мм, 50 шт. 10294014</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-soedinitelnyj-dlya-profilya-kr-60x27-0-7-50sht-ooo-pzm-10294014-11790701/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1 242 ₽</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>код: 33323466</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Краб-система Металлист Х-образная 20х20 (1,2 мм), ГОЦ, 60 шт. 0000000001431</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.vseinstrumenti.ru/product/krab-sistema-metallist-h-obraznaya-20h20-1-2-mm-gots-60-sht-0000000001431-13981861/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1 476 ₽</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Рейтинг не найден</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Отзывы не найдены</t>
         </is>
       </c>
     </row>
